--- a/data/EM quali 10 11.xlsx
+++ b/data/EM quali 10 11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudiumPC\Module\WER\Fussball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92b67ca051a8810c/Dokumente/GitHub/wer_omc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09D3ABA-AB9E-4BDA-A2AB-902C9CFA9A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6FCE433-C831-437B-B32C-2C01B449D628}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A6FCE433-C831-437B-B32C-2C01B449D628}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="7" r:id="rId1"/>
@@ -562,13 +562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EA013D-C6C0-4C84-828E-70D85879F8F4}">
   <dimension ref="A1:B480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -672,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -744,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -928,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>47</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>47</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>50</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>46</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>34</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>24</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>41</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>49</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>49</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>22</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>40</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>33</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>38</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>33</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>38</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>42</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>28</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>33</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>38</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>42</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>42</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>33</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>28</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>42</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>21</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>38</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>29</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>48</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>36</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>39</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>36</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>39</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>48</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>36</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>48</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>36</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>48</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>29</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>48</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>36</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>44</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>30</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>44</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>30</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>10</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>44</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>30</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>27</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>30</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>35</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>47</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>25</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>50</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>47</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>25</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>35</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>6</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>50</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>25</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>47</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>50</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>35</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>47</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>50</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>50</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>25</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>43</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>37</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>45</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>43</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>37</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>23</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>43</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>37</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>20</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>45</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>23</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>45</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>20</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>37</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>23</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>43</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>23</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>23</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>45</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>43</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>26</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>17</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>32</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>46</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>26</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>32</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>31</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>26</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>17</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>32</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>46</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>16</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>26</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>46</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>17</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>16</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>46</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>26</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>31</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>46</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>32</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>18</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>0</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>2</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>18</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>34</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>24</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>41</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>34</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>24</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>34</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>4</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>24</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>41</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>14</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>34</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>41</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>4</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>22</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>49</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>40</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>3</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>22</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>3</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>49</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>22</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>49</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>3</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>49</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>22</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>40</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>3</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>40</v>
       </c>
